--- a/archivos/detalleTanquesPlantel.xlsx
+++ b/archivos/detalleTanquesPlantel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616CAF85-9863-4B0E-A263-B000832DD8AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F94B764-BC6C-42A0-BFAD-C516FCFEA1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -166,18 +166,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -189,6 +177,18 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -279,14 +279,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>47130</xdr:colOff>
+      <xdr:colOff>57149</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
@@ -302,13 +302,20 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19080" y="0"/>
-          <a:ext cx="2765520" cy="804600"/>
+          <a:off x="19049" y="0"/>
+          <a:ext cx="2524125" cy="804825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -623,7 +630,7 @@
   <dimension ref="A1:R1010"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +641,7 @@
     <col min="5" max="5" width="14.140625" style="9" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="17" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" style="9" customWidth="1"/>
     <col min="10" max="10" width="14.140625" style="4" customWidth="1"/>
     <col min="11" max="11" width="3.7109375" style="4" customWidth="1"/>
@@ -648,14 +655,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
@@ -665,12 +672,12 @@
       <c r="R1" s="10"/>
     </row>
     <row r="2" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
@@ -680,12 +687,12 @@
       <c r="R2" s="10"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
@@ -695,12 +702,12 @@
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
@@ -712,15 +719,15 @@
     <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
@@ -730,16 +737,16 @@
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -749,12 +756,12 @@
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -770,26 +777,26 @@
     <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="9"/>
       <c r="K12" s="9"/>
     </row>
@@ -803,7 +810,7 @@
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="9"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
